--- a/pred_ohlcv/54_21/2019-10-30 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 FX ohlcv.xlsx
@@ -3174,7 +3174,7 @@
         <v>54391.3735800189</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>44098.4740800189</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>68277.42538691545</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>70014.27579726027</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>99204.59544455758</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>99203.59544455758</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>99067.59544455758</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>56394.29404455758</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>46226.54104455758</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-214407.9467779216</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-221203.4307779216</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-212983.3654779216</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-217006.2793779216</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-216990.2793779216</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6829.141277921619</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-11241.10407792162</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>128086.0446657227</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>129501.0751657227</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>144136.7528498954</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>143102.6598498954</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>143418.1891498954</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-30 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-30 FX ohlcv.xlsx
@@ -2732,7 +2732,7 @@
         <v>49983.02729726028</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>41109.64369726028</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>43040.6781800189</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>39998.1816800189</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>32284.0453800189</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>35674.9322800189</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>54391.3735800189</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>44098.4740800189</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>70014.27579726027</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>105367.8711445576</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>99204.59544455758</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>99203.59544455758</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>99067.59544455758</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>99069.59544455758</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>76909.72324455758</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-214769.2052779216</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-212983.3654779216</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-212982.3654779216</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-216054.3459779216</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-217006.2793779216</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-216990.2793779216</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-217785.1318779216</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-206766.1086779216</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-198509.2803779216</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-198509.2803779216</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-195889.4688779216</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-195889.4688779216</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-6829.141277921619</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-11241.10407792162</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>133015.9655657227</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>128086.0446657227</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>129501.0751657227</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>129502.0751657227</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>144136.7528498954</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>143102.6598498954</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>143418.1891498954</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
